--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="338">
   <si>
     <t>input</t>
   </si>
@@ -1019,6 +1019,15 @@
   </si>
   <si>
     <t>total hp laptops remaining</t>
+  </si>
+  <si>
+    <t>total stock of shrawan</t>
+  </si>
+  <si>
+    <t>total inventory of laptop in shrawan</t>
+  </si>
+  <si>
+    <t>total inventory of baishakh/jestha/ashad/shrawan/bhadra/asoj/kartik/mangir/poush/magh/falgun/chatra</t>
   </si>
 </sst>
 </file>
@@ -5016,16 +5025,28 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
-      <c r="A456" s="1"/>
-      <c r="B456" s="1"/>
+      <c r="A456" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
-      <c r="A457" s="1"/>
-      <c r="B457" s="1"/>
+      <c r="A457" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="21">
-      <c r="A458" s="1"/>
-      <c r="B458" s="1"/>
+      <c r="A458" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
